--- a/data/trans_orig/P25C_R_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R_2023-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejó de fumar sin ayuda específica, el/ella solo/a en 2023</t>
+          <t>Población según si dejó de fumar con o sin ayuda específica en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
